--- a/data/MauImport/DuKienMonBai.xlsx
+++ b/data/MauImport/DuKienMonBai.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="525" windowWidth="20730" windowHeight="9405"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Tiểu Mục  (*)</t>
   </si>
   <si>
-    <t>Dự kiến môn bài - **/****</t>
-  </si>
-  <si>
     <t>Bậc môn bài</t>
   </si>
   <si>
@@ -44,13 +41,19 @@
   </si>
   <si>
     <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Dự kiến môn bài - ****</t>
+  </si>
+  <si>
+    <t>Doanh số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -65,9 +68,16 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -123,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -152,6 +162,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,16 +485,16 @@
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -487,8 +504,9 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -498,8 +516,9 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -509,8 +528,9 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -524,25 +544,28 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A1:J3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
